--- a/pages/STPTestData.xlsx
+++ b/pages/STPTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Serole Automation\playwright_python\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F172B42-F91C-4B98-A3EC-1B26C99070A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05239AB3-EDC1-4F48-93A3-949456D4AA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{45C1E7C0-1AF2-45CB-BEA8-DD612E61CE1D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>RegNo</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>751211-14-5267</t>
+  </si>
+  <si>
+    <t>BFJ7088</t>
+  </si>
+  <si>
+    <t>940314-11-5725</t>
+  </si>
+  <si>
+    <t>PC NSTP</t>
   </si>
 </sst>
 </file>
@@ -180,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -188,7 +197,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689C8A9F-98AE-49F8-89B3-BABBB35DE82F}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:B11"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,14 +633,26 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pages/STPTestData.xlsx
+++ b/pages/STPTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Serole Automation\playwright_python\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05239AB3-EDC1-4F48-93A3-949456D4AA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAC5218-5736-4B4A-91DC-4ADCB3A34113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{45C1E7C0-1AF2-45CB-BEA8-DD612E61CE1D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>RegNo</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>PC NSTP</t>
+  </si>
+  <si>
+    <t>WHT6766</t>
+  </si>
+  <si>
+    <t>000123-11-0681</t>
+  </si>
+  <si>
+    <t>PC STP</t>
   </si>
 </sst>
 </file>
@@ -162,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,11 +194,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -197,6 +219,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,11 +534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689C8A9F-98AE-49F8-89B3-BABBB35DE82F}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,9 +673,20 @@
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pages/STPTestData.xlsx
+++ b/pages/STPTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Serole Automation\playwright_python\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAC5218-5736-4B4A-91DC-4ADCB3A34113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C13278-9B4D-47CA-9A3D-2B80FAC31F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{45C1E7C0-1AF2-45CB-BEA8-DD612E61CE1D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>RegNo</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>PC STP</t>
+  </si>
+  <si>
+    <t>520303-01-5162</t>
+  </si>
+  <si>
+    <t>JMD3792</t>
   </si>
 </sst>
 </file>
@@ -163,12 +169,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -211,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -220,6 +232,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,11 +548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689C8A9F-98AE-49F8-89B3-BABBB35DE82F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,10 +598,10 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1"/>
@@ -600,7 +614,9 @@
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -678,13 +694,24 @@
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/pages/STPTestData.xlsx
+++ b/pages/STPTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Serole Automation\playwright_python\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C13278-9B4D-47CA-9A3D-2B80FAC31F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D5E7D-F749-4DB4-98B2-701464088C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{45C1E7C0-1AF2-45CB-BEA8-DD612E61CE1D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>RegNo</t>
   </si>
@@ -42,9 +42,6 @@
     <t>New IC</t>
   </si>
   <si>
-    <t>BizRegNo</t>
-  </si>
-  <si>
     <t>SYR5889</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>JMD3792</t>
+  </si>
+  <si>
+    <t>STP/NSTP</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -207,14 +207,59 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -223,17 +268,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,11 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689C8A9F-98AE-49F8-89B3-BABBB35DE82F}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -563,157 +614,197 @@
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pages/STPTestData.xlsx
+++ b/pages/STPTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Serole Automation\playwright_python\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D5E7D-F749-4DB4-98B2-701464088C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84D6713-D809-4B9A-83B1-68BA90C84B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{45C1E7C0-1AF2-45CB-BEA8-DD612E61CE1D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>RegNo</t>
   </si>
@@ -133,6 +133,33 @@
   </si>
   <si>
     <t>STP/NSTP</t>
+  </si>
+  <si>
+    <t>WMA7816</t>
+  </si>
+  <si>
+    <t>PG0172795-X</t>
+  </si>
+  <si>
+    <t>DBJ1129</t>
+  </si>
+  <si>
+    <t>KT0228515-W</t>
+  </si>
+  <si>
+    <t>WCQ8379</t>
+  </si>
+  <si>
+    <t>851689-U</t>
+  </si>
+  <si>
+    <t>WKY8591</t>
+  </si>
+  <si>
+    <t>AS0302628-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV C </t>
   </si>
 </sst>
 </file>
@@ -602,8 +629,8 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" activeCellId="1" sqref="J15 K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -783,27 +810,51 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D20" s="1"/>
     </row>
   </sheetData>
